--- a/30 設計/10 データベース設計/テーブル定義書.xlsx
+++ b/30 設計/10 データベース設計/テーブル定義書.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="149">
   <si>
     <t>システム名</t>
   </si>
@@ -464,6 +464,14 @@
   </si>
   <si>
     <t>id,user_id,sending_time,delete_kubun</t>
+  </si>
+  <si>
+    <t>id,calendar_date</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -1272,6 +1280,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1321,24 +1347,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1889,107 +1897,107 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="68"/>
+      <c r="C4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="53"/>
       <c r="E4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -2178,11 +2186,11 @@
         <v>1</v>
       </c>
       <c r="B23" s="26"/>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
     </row>
@@ -2202,10 +2210,10 @@
         <v>71</v>
       </c>
       <c r="D26" s="43"/>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="49"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="34" t="s">
         <v>77</v>
       </c>
@@ -2217,14 +2225,14 @@
       <c r="B27" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="50" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="51"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="27" t="s">
         <v>43</v>
       </c>
@@ -2245,10 +2253,10 @@
         <v>71</v>
       </c>
       <c r="D30" s="43"/>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="49"/>
+      <c r="F30" s="55"/>
       <c r="G30" s="34" t="s">
         <v>80</v>
       </c>
@@ -2260,30 +2268,20 @@
       <c r="B31" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="50" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="51"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="27" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
@@ -2293,6 +2291,16 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2332,107 +2340,107 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="68"/>
+      <c r="C4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="53"/>
       <c r="E4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -2686,11 +2694,11 @@
         <v>1</v>
       </c>
       <c r="B26" s="26"/>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
     </row>
@@ -2710,10 +2718,10 @@
         <v>71</v>
       </c>
       <c r="D29" s="43"/>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="49"/>
+      <c r="F29" s="55"/>
       <c r="G29" s="34" t="s">
         <v>77</v>
       </c>
@@ -2725,14 +2733,14 @@
       <c r="B30" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="50" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="51"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="27" t="s">
         <v>44</v>
       </c>
@@ -2753,10 +2761,10 @@
         <v>71</v>
       </c>
       <c r="D33" s="43"/>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="34" t="s">
         <v>80</v>
       </c>
@@ -2768,30 +2776,20 @@
       <c r="B34" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="50" t="s">
+      <c r="D34" s="57"/>
+      <c r="E34" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="51"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="27" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
@@ -2801,6 +2799,16 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2817,7 +2825,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2840,107 +2848,107 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="68"/>
+      <c r="C4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="53"/>
       <c r="E4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -2975,13 +2983,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>46</v>
@@ -2994,149 +3002,172 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="A15" s="9">
         <v>2</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D16" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="37" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="G16" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>4</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25">
+        <v>1</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="41" t="s">
+      <c r="B24" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
-        <v>1</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="22" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="D24" s="46"/>
+      <c r="E24" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="72"/>
+      <c r="G24" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B27" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C27" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="71" t="s">
+      <c r="D27" s="46"/>
+      <c r="E27" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="18" t="s">
+      <c r="F27" s="72"/>
+      <c r="G27" s="18" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3176,107 +3207,107 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="68"/>
+      <c r="C4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="53"/>
       <c r="E4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -3467,11 +3498,11 @@
         <v>1</v>
       </c>
       <c r="B23" s="26"/>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
     </row>
@@ -3491,10 +3522,10 @@
         <v>71</v>
       </c>
       <c r="D26" s="43"/>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="49"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="34" t="s">
         <v>77</v>
       </c>
@@ -3563,16 +3594,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
@@ -3582,6 +3603,16 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3621,107 +3652,107 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="68"/>
+      <c r="C4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="53"/>
       <c r="E4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -3889,11 +3920,11 @@
         <v>1</v>
       </c>
       <c r="B22" s="26"/>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
     </row>
@@ -3913,10 +3944,10 @@
         <v>71</v>
       </c>
       <c r="D25" s="43"/>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="34" t="s">
         <v>77</v>
       </c>
@@ -3928,14 +3959,14 @@
       <c r="B26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="50" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="51"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="27" t="s">
         <v>44</v>
       </c>
@@ -3966,16 +3997,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
@@ -3983,6 +4004,16 @@
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4022,107 +4053,107 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="68"/>
+      <c r="C4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="53"/>
       <c r="E4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -4290,11 +4321,11 @@
         <v>1</v>
       </c>
       <c r="B22" s="26"/>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
     </row>
@@ -4314,10 +4345,10 @@
         <v>71</v>
       </c>
       <c r="D25" s="43"/>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="34" t="s">
         <v>77</v>
       </c>
@@ -4329,14 +4360,14 @@
       <c r="B26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="50" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="51"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="27" t="s">
         <v>43</v>
       </c>
@@ -4357,10 +4388,10 @@
         <v>71</v>
       </c>
       <c r="D29" s="43"/>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="49"/>
+      <c r="F29" s="55"/>
       <c r="G29" s="34" t="s">
         <v>80</v>
       </c>
@@ -4372,30 +4403,20 @@
       <c r="B30" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="50" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="51"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="27" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
@@ -4405,6 +4426,16 @@
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4444,107 +4475,107 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="68"/>
+      <c r="C4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="53"/>
       <c r="E4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -4714,11 +4745,11 @@
         <v>1</v>
       </c>
       <c r="B22" s="26"/>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
     </row>
@@ -4738,10 +4769,10 @@
         <v>71</v>
       </c>
       <c r="D25" s="43"/>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="34" t="s">
         <v>77</v>
       </c>
@@ -4810,16 +4841,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E30:F30"/>
@@ -4829,6 +4850,16 @@
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4868,107 +4899,107 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="68"/>
+      <c r="C4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="53"/>
       <c r="E4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -5178,11 +5209,11 @@
         <v>1</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
     </row>
@@ -5202,10 +5233,10 @@
         <v>71</v>
       </c>
       <c r="D27" s="43"/>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="49"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="34" t="s">
         <v>77</v>
       </c>
@@ -5217,14 +5248,14 @@
       <c r="B28" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="50" t="s">
+      <c r="D28" s="57"/>
+      <c r="E28" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="51"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="27" t="s">
         <v>43</v>
       </c>
@@ -5255,16 +5286,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
@@ -5272,6 +5293,16 @@
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5311,107 +5342,107 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="49"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="68"/>
+      <c r="C4" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="53"/>
       <c r="E4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -5640,11 +5671,11 @@
         <v>1</v>
       </c>
       <c r="B25" s="26"/>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
     </row>
@@ -5688,10 +5719,10 @@
         <v>71</v>
       </c>
       <c r="D31" s="43"/>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="49"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="34" t="s">
         <v>80</v>
       </c>
@@ -5812,6 +5843,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C2:D2"/>
@@ -5828,17 +5870,6 @@
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
